--- a/hdi_human_development_index.xlsx
+++ b/hdi_human_development_index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\CDados\ProjetoCD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Projeto1CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C55BC8-C8BA-4538-838F-925C4A3294E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CCC60-9C81-47E1-90B7-10E007CAE047}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="10800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hdi_human_development_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -586,13 +580,10 @@
     <t>country</t>
   </si>
   <si>
-    <t>SADC</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo Rep</t>
   </si>
 </sst>
 </file>
@@ -977,17 +968,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="hdi_human_development_index"/>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AA188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1">
         <v>1990</v>
@@ -1067,11 +1058,8 @@
       <c r="AA1">
         <v>2015</v>
       </c>
-      <c r="AB1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1153,11 +1141,8 @@
       <c r="AA2">
         <v>0.47899999999999998</v>
       </c>
-      <c r="AB2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1239,11 +1224,8 @@
       <c r="AA3">
         <v>0.76400000000000001</v>
       </c>
-      <c r="AB3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1325,11 +1307,8 @@
       <c r="AA4">
         <v>0.745</v>
       </c>
-      <c r="AB4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1351,11 +1330,8 @@
       <c r="AA5">
         <v>0.85799999999999998</v>
       </c>
-      <c r="AB5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1410,11 +1386,8 @@
       <c r="AA6" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AB6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1451,11 +1424,8 @@
       <c r="AA7">
         <v>0.78600000000000003</v>
       </c>
-      <c r="AB7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1537,11 +1507,8 @@
       <c r="AA8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AB8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1623,11 +1590,8 @@
       <c r="AA9">
         <v>0.74299999999999999</v>
       </c>
-      <c r="AB9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1709,11 +1673,8 @@
       <c r="AA10">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AB10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1795,11 +1756,8 @@
       <c r="AA11">
         <v>0.89300000000000002</v>
       </c>
-      <c r="AB11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1866,11 +1824,8 @@
       <c r="AA12">
         <v>0.75900000000000001</v>
       </c>
-      <c r="AB12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1922,11 +1877,8 @@
       <c r="AA13">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AB13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2008,11 +1960,8 @@
       <c r="AA14">
         <v>0.82399999999999995</v>
       </c>
-      <c r="AB14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2094,11 +2043,8 @@
       <c r="AA15">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AB15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2180,11 +2126,8 @@
       <c r="AA16">
         <v>0.79500000000000004</v>
       </c>
-      <c r="AB16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2251,11 +2194,8 @@
       <c r="AA17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="AB17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2337,11 +2277,8 @@
       <c r="AA18">
         <v>0.89600000000000002</v>
       </c>
-      <c r="AB18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2423,11 +2360,8 @@
       <c r="AA19">
         <v>0.70599999999999996</v>
       </c>
-      <c r="AB19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2509,11 +2443,8 @@
       <c r="AA20">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AB20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2535,11 +2466,8 @@
       <c r="AA21">
         <v>0.60699999999999998</v>
       </c>
-      <c r="AB21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2621,11 +2549,8 @@
       <c r="AA22">
         <v>0.67400000000000004</v>
       </c>
-      <c r="AB22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2662,11 +2587,8 @@
       <c r="AA23">
         <v>0.75</v>
       </c>
-      <c r="AB23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2748,11 +2670,8 @@
       <c r="AA24" s="1">
         <v>0.69799999999999995</v>
       </c>
-      <c r="AB24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2834,11 +2753,8 @@
       <c r="AA25">
         <v>0.754</v>
       </c>
-      <c r="AB25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2920,11 +2836,8 @@
       <c r="AA26">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AB26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3006,11 +2919,8 @@
       <c r="AA27">
         <v>0.79400000000000004</v>
       </c>
-      <c r="AB27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3047,11 +2957,8 @@
       <c r="AA28">
         <v>0.40200000000000002</v>
       </c>
-      <c r="AB28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3133,11 +3040,8 @@
       <c r="AA29">
         <v>0.40400000000000003</v>
       </c>
-      <c r="AB29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3219,11 +3123,8 @@
       <c r="AA30">
         <v>0.56299999999999994</v>
       </c>
-      <c r="AB30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3305,11 +3206,8 @@
       <c r="AA31">
         <v>0.51800000000000002</v>
       </c>
-      <c r="AB31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3391,11 +3289,8 @@
       <c r="AA32">
         <v>0.92</v>
       </c>
-      <c r="AB32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3447,11 +3342,8 @@
       <c r="AA33">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AB33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3533,11 +3425,8 @@
       <c r="AA34">
         <v>0.35199999999999998</v>
       </c>
-      <c r="AB34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3589,11 +3478,8 @@
       <c r="AA35">
         <v>0.39600000000000002</v>
       </c>
-      <c r="AB35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3675,11 +3561,8 @@
       <c r="AA36">
         <v>0.84699999999999998</v>
       </c>
-      <c r="AB36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3761,11 +3644,8 @@
       <c r="AA37">
         <v>0.73799999999999999</v>
       </c>
-      <c r="AB37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3847,11 +3727,8 @@
       <c r="AA38">
         <v>0.72699999999999998</v>
       </c>
-      <c r="AB38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3891,13 +3768,10 @@
       <c r="AA39" s="1">
         <v>0.498</v>
       </c>
-      <c r="AB39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="B40" s="1">
         <v>0.35599999999999998</v>
@@ -3977,13 +3851,10 @@
       <c r="AA40" s="1">
         <v>0.435</v>
       </c>
-      <c r="AB40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="B41">
         <v>0.52100000000000002</v>
@@ -4063,13 +3934,10 @@
       <c r="AA41">
         <v>0.59199999999999997</v>
       </c>
-      <c r="AB41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>0.65300000000000002</v>
@@ -4149,13 +4017,10 @@
       <c r="AA42">
         <v>0.77600000000000002</v>
       </c>
-      <c r="AB42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>0.38900000000000001</v>
@@ -4235,13 +4100,10 @@
       <c r="AA43">
         <v>0.47399999999999998</v>
       </c>
-      <c r="AB43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>0.66900000000000004</v>
@@ -4321,13 +4183,10 @@
       <c r="AA44">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AB44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>0.67600000000000005</v>
@@ -4407,13 +4266,10 @@
       <c r="AA45">
         <v>0.77500000000000002</v>
       </c>
-      <c r="AB45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>0.73299999999999998</v>
@@ -4493,13 +4349,10 @@
       <c r="AA46">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AB46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>0.76100000000000001</v>
@@ -4579,13 +4432,10 @@
       <c r="AA47">
         <v>0.878</v>
       </c>
-      <c r="AB47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>0.79900000000000004</v>
@@ -4665,13 +4515,10 @@
       <c r="AA48">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AB48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>0.35299999999999998</v>
@@ -4736,13 +4583,10 @@
       <c r="AA49">
         <v>0.47299999999999998</v>
       </c>
-      <c r="AB49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L50">
         <v>0.69499999999999995</v>
@@ -4792,13 +4636,10 @@
       <c r="AA50">
         <v>0.72599999999999998</v>
       </c>
-      <c r="AB50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>0.59599999999999997</v>
@@ -4878,13 +4719,10 @@
       <c r="AA51">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AB51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>0.64300000000000002</v>
@@ -4964,13 +4802,10 @@
       <c r="AA52">
         <v>0.73899999999999999</v>
       </c>
-      <c r="AB52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <v>0.54700000000000004</v>
@@ -5050,13 +4885,10 @@
       <c r="AA53">
         <v>0.69099999999999995</v>
       </c>
-      <c r="AB53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>0.52900000000000003</v>
@@ -5136,13 +4968,10 @@
       <c r="AA54">
         <v>0.68</v>
       </c>
-      <c r="AB54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L55">
         <v>0.52700000000000002</v>
@@ -5192,13 +5021,10 @@
       <c r="AA55">
         <v>0.59199999999999997</v>
       </c>
-      <c r="AB55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q56">
         <v>0.40500000000000003</v>
@@ -5233,13 +5059,10 @@
       <c r="AA56">
         <v>0.42</v>
       </c>
-      <c r="AB56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>0.72799999999999998</v>
@@ -5319,13 +5142,10 @@
       <c r="AA57">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AB57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L58">
         <v>0.28299999999999997</v>
@@ -5375,13 +5195,10 @@
       <c r="AA58">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AB58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>0.64100000000000001</v>
@@ -5461,13 +5278,10 @@
       <c r="AA59">
         <v>0.73599999999999999</v>
       </c>
-      <c r="AB59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>0.78300000000000003</v>
@@ -5547,13 +5361,10 @@
       <c r="AA60">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AB60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>0.77900000000000003</v>
@@ -5633,13 +5444,10 @@
       <c r="AA61">
         <v>0.89700000000000002</v>
       </c>
-      <c r="AB61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>0.62</v>
@@ -5719,13 +5527,10 @@
       <c r="AA62">
         <v>0.69699999999999995</v>
       </c>
-      <c r="AB62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0.33</v>
@@ -5805,13 +5610,10 @@
       <c r="AA63">
         <v>0.45200000000000001</v>
       </c>
-      <c r="AB63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L64">
         <v>0.67300000000000004</v>
@@ -5861,13 +5663,10 @@
       <c r="AA64">
         <v>0.76900000000000002</v>
       </c>
-      <c r="AB64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>0.80100000000000005</v>
@@ -5947,13 +5746,10 @@
       <c r="AA65">
         <v>0.92600000000000005</v>
       </c>
-      <c r="AB65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>0.45500000000000002</v>
@@ -6033,13 +5829,10 @@
       <c r="AA66">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AB66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>0.76</v>
@@ -6119,13 +5912,10 @@
       <c r="AA67">
         <v>0.86599999999999999</v>
       </c>
-      <c r="AB67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V68">
         <v>0.74099999999999999</v>
@@ -6145,13 +5935,10 @@
       <c r="AA68">
         <v>0.754</v>
       </c>
-      <c r="AB68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>0.47799999999999998</v>
@@ -6231,13 +6018,10 @@
       <c r="AA69">
         <v>0.64</v>
       </c>
-      <c r="AB69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>0.27100000000000002</v>
@@ -6317,13 +6101,10 @@
       <c r="AA70">
         <v>0.41399999999999998</v>
       </c>
-      <c r="AB70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q71">
         <v>0.38800000000000001</v>
@@ -6358,13 +6139,10 @@
       <c r="AA71">
         <v>0.42399999999999999</v>
       </c>
-      <c r="AB71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>0.54100000000000004</v>
@@ -6444,13 +6222,10 @@
       <c r="AA72">
         <v>0.63800000000000001</v>
       </c>
-      <c r="AB72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>0.40799999999999997</v>
@@ -6530,13 +6305,10 @@
       <c r="AA73">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AB73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>0.50700000000000001</v>
@@ -6616,13 +6388,10 @@
       <c r="AA74">
         <v>0.625</v>
       </c>
-      <c r="AB74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>0.70299999999999996</v>
@@ -6702,13 +6471,10 @@
       <c r="AA75">
         <v>0.83599999999999997</v>
       </c>
-      <c r="AB75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>0.79700000000000004</v>
@@ -6788,13 +6554,10 @@
       <c r="AA76">
         <v>0.92100000000000004</v>
       </c>
-      <c r="AB76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>0.42799999999999999</v>
@@ -6874,13 +6637,10 @@
       <c r="AA77">
         <v>0.624</v>
       </c>
-      <c r="AB77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>0.52800000000000002</v>
@@ -6960,13 +6720,10 @@
       <c r="AA78">
         <v>0.68899999999999995</v>
       </c>
-      <c r="AB78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>0.57199999999999995</v>
@@ -7046,13 +6803,10 @@
       <c r="AA79">
         <v>0.77400000000000002</v>
       </c>
-      <c r="AB79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>0.57199999999999995</v>
@@ -7132,13 +6886,10 @@
       <c r="AA80">
         <v>0.64900000000000002</v>
       </c>
-      <c r="AB80" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>0.76200000000000001</v>
@@ -7218,13 +6969,10 @@
       <c r="AA81">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AB81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>0.78500000000000003</v>
@@ -7304,13 +7052,10 @@
       <c r="AA82">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AB82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>0.76800000000000002</v>
@@ -7390,13 +7135,10 @@
       <c r="AA83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AB83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>0.65100000000000002</v>
@@ -7476,13 +7218,10 @@
       <c r="AA84">
         <v>0.73</v>
       </c>
-      <c r="AB84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>0.81399999999999995</v>
@@ -7562,13 +7301,10 @@
       <c r="AA85">
         <v>0.90300000000000002</v>
       </c>
-      <c r="AB85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>0.62</v>
@@ -7648,13 +7384,10 @@
       <c r="AA86">
         <v>0.74199999999999999</v>
       </c>
-      <c r="AB86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>0.69</v>
@@ -7734,13 +7467,10 @@
       <c r="AA87">
         <v>0.79400000000000004</v>
       </c>
-      <c r="AB87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>0.47299999999999998</v>
@@ -7820,13 +7550,10 @@
       <c r="AA88">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AB88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q89">
         <v>0.57599999999999996</v>
@@ -7861,13 +7588,10 @@
       <c r="AA89">
         <v>0.58799999999999997</v>
       </c>
-      <c r="AB89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>0.71299999999999997</v>
@@ -7947,13 +7671,10 @@
       <c r="AA90">
         <v>0.8</v>
       </c>
-      <c r="AB90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>0.61499999999999999</v>
@@ -8033,13 +7754,10 @@
       <c r="AA91">
         <v>0.66400000000000003</v>
       </c>
-      <c r="AB91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>0.39700000000000002</v>
@@ -8119,13 +7837,10 @@
       <c r="AA92">
         <v>0.58599999999999997</v>
       </c>
-      <c r="AB92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>0.70299999999999996</v>
@@ -8205,13 +7920,10 @@
       <c r="AA93">
         <v>0.83</v>
       </c>
-      <c r="AB93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q94">
         <v>0.73299999999999998</v>
@@ -8246,13 +7958,10 @@
       <c r="AA94">
         <v>0.76300000000000001</v>
       </c>
-      <c r="AB94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1">
         <v>0.49299999999999999</v>
@@ -8332,13 +8041,10 @@
       <c r="AA95" s="1">
         <v>0.497</v>
       </c>
-      <c r="AB95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K96">
         <v>0.33800000000000002</v>
@@ -8391,13 +8097,10 @@
       <c r="AA96">
         <v>0.42699999999999999</v>
       </c>
-      <c r="AB96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>0.68100000000000005</v>
@@ -8477,13 +8180,10 @@
       <c r="AA97">
         <v>0.71599999999999997</v>
       </c>
-      <c r="AB97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L98">
         <v>0.86199999999999999</v>
@@ -8533,13 +8233,10 @@
       <c r="AA98">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AB98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>0.73099999999999998</v>
@@ -8619,13 +8316,10 @@
       <c r="AA99">
         <v>0.84799999999999998</v>
       </c>
-      <c r="AB99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>0.78200000000000003</v>
@@ -8705,13 +8399,10 @@
       <c r="AA100">
         <v>0.89800000000000002</v>
       </c>
-      <c r="AB100" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q101">
         <v>0.70299999999999996</v>
@@ -8746,13 +8437,10 @@
       <c r="AA101">
         <v>0.748</v>
       </c>
-      <c r="AB101" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L102" s="1">
         <v>0.45600000000000002</v>
@@ -8802,13 +8490,10 @@
       <c r="AA102" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="AB102" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1">
         <v>0.32500000000000001</v>
@@ -8888,13 +8573,10 @@
       <c r="AA103" s="1">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AB103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>0.64300000000000002</v>
@@ -8974,13 +8656,10 @@
       <c r="AA104">
         <v>0.78900000000000003</v>
       </c>
-      <c r="AB104" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G105">
         <v>0.52</v>
@@ -9045,13 +8724,10 @@
       <c r="AA105">
         <v>0.70099999999999996</v>
       </c>
-      <c r="AB105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106">
         <v>0.222</v>
@@ -9131,13 +8807,10 @@
       <c r="AA106">
         <v>0.442</v>
       </c>
-      <c r="AB106" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>0.73599999999999999</v>
@@ -9217,13 +8890,10 @@
       <c r="AA107">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AB107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>0.378</v>
@@ -9303,13 +8973,10 @@
       <c r="AA108">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AB108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="1">
         <v>0.62</v>
@@ -9389,13 +9056,10 @@
       <c r="AA109" s="1">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AB109" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>0.64800000000000002</v>
@@ -9475,13 +9139,10 @@
       <c r="AA110">
         <v>0.76200000000000001</v>
       </c>
-      <c r="AB110" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L111">
         <v>0.60399999999999998</v>
@@ -9531,13 +9192,10 @@
       <c r="AA111">
         <v>0.63800000000000001</v>
       </c>
-      <c r="AB111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>0.65200000000000002</v>
@@ -9617,13 +9275,10 @@
       <c r="AA112">
         <v>0.69899999999999995</v>
       </c>
-      <c r="AB112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>0.57899999999999996</v>
@@ -9703,13 +9358,10 @@
       <c r="AA113">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AB113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O114">
         <v>0.74</v>
@@ -9750,13 +9402,10 @@
       <c r="AA114">
         <v>0.80700000000000005</v>
       </c>
-      <c r="AB114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115">
         <v>0.45800000000000002</v>
@@ -9836,13 +9485,10 @@
       <c r="AA115">
         <v>0.64700000000000002</v>
       </c>
-      <c r="AB115" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="1">
         <v>0.20899999999999999</v>
@@ -9922,13 +9568,10 @@
       <c r="AA116" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="AB116" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>0.35299999999999998</v>
@@ -10008,13 +9651,10 @@
       <c r="AA117">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AB117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="1">
         <v>0.57799999999999996</v>
@@ -10094,13 +9734,10 @@
       <c r="AA118" s="1">
         <v>0.64</v>
       </c>
-      <c r="AB118" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>0.378</v>
@@ -10180,13 +9817,10 @@
       <c r="AA119">
         <v>0.55800000000000005</v>
       </c>
-      <c r="AB119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120">
         <v>0.83</v>
@@ -10266,13 +9900,10 @@
       <c r="AA120">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AB120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>0.81799999999999995</v>
@@ -10352,13 +9983,10 @@
       <c r="AA121">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AB121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122">
         <v>0.495</v>
@@ -10438,13 +10066,10 @@
       <c r="AA122">
         <v>0.64500000000000002</v>
       </c>
-      <c r="AB122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123">
         <v>0.21199999999999999</v>
@@ -10524,13 +10149,10 @@
       <c r="AA123">
         <v>0.35299999999999998</v>
       </c>
-      <c r="AB123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O124">
         <v>0.44500000000000001</v>
@@ -10571,13 +10193,10 @@
       <c r="AA124">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AB124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>0.84899999999999998</v>
@@ -10657,13 +10276,10 @@
       <c r="AA125">
         <v>0.94899999999999995</v>
       </c>
-      <c r="AB125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L126">
         <v>0.70499999999999996</v>
@@ -10713,13 +10329,10 @@
       <c r="AA126">
         <v>0.79600000000000004</v>
       </c>
-      <c r="AB126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127">
         <v>0.40400000000000003</v>
@@ -10799,13 +10412,10 @@
       <c r="AA127">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L128">
         <v>0.74099999999999999</v>
@@ -10855,13 +10465,10 @@
       <c r="AA128">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AB128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P129">
         <v>0.64800000000000002</v>
@@ -10899,13 +10506,10 @@
       <c r="AA129">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AB129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130">
         <v>0.66200000000000003</v>
@@ -10985,13 +10589,10 @@
       <c r="AA130">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AB130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>0.36</v>
@@ -11071,13 +10672,10 @@
       <c r="AA131">
         <v>0.51600000000000001</v>
       </c>
-      <c r="AB131" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132">
         <v>0.57999999999999996</v>
@@ -11157,13 +10755,10 @@
       <c r="AA132">
         <v>0.69299999999999995</v>
       </c>
-      <c r="AB132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133">
         <v>0.61299999999999999</v>
@@ -11243,13 +10838,10 @@
       <c r="AA133">
         <v>0.74</v>
       </c>
-      <c r="AB133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134">
         <v>0.58599999999999997</v>
@@ -11329,13 +10921,10 @@
       <c r="AA134">
         <v>0.68200000000000005</v>
       </c>
-      <c r="AB134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135">
         <v>0.71199999999999997</v>
@@ -11415,13 +11004,10 @@
       <c r="AA135">
         <v>0.85499999999999998</v>
       </c>
-      <c r="AB135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>0.71099999999999997</v>
@@ -11501,13 +11087,10 @@
       <c r="AA136">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AB136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137">
         <v>0.754</v>
@@ -11587,13 +11170,10 @@
       <c r="AA137">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AB137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>0.7</v>
@@ -11673,13 +11253,10 @@
       <c r="AA138">
         <v>0.80200000000000005</v>
       </c>
-      <c r="AB138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>0.73299999999999998</v>
@@ -11759,13 +11336,10 @@
       <c r="AA139">
         <v>0.80400000000000005</v>
       </c>
-      <c r="AB139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>0.24399999999999999</v>
@@ -11845,13 +11419,10 @@
       <c r="AA140">
         <v>0.498</v>
       </c>
-      <c r="AB140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141">
         <v>0.59799999999999998</v>
@@ -11931,13 +11502,10 @@
       <c r="AA141">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AB141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142">
         <v>0.45400000000000001</v>
@@ -12017,13 +11585,10 @@
       <c r="AA142">
         <v>0.57399999999999995</v>
       </c>
-      <c r="AB142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143">
         <v>0.69799999999999995</v>
@@ -12103,13 +11668,10 @@
       <c r="AA143">
         <v>0.84699999999999998</v>
       </c>
-      <c r="AB143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>0.36699999999999999</v>
@@ -12189,13 +11751,10 @@
       <c r="AA144">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AB144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145">
         <v>0.71399999999999997</v>
@@ -12275,13 +11834,10 @@
       <c r="AA145">
         <v>0.77600000000000002</v>
       </c>
-      <c r="AB145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L146" s="1">
         <v>0.71399999999999997</v>
@@ -12331,13 +11887,10 @@
       <c r="AA146" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="AB146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147">
         <v>0.27200000000000002</v>
@@ -12417,13 +11970,10 @@
       <c r="AA147">
         <v>0.42</v>
       </c>
-      <c r="AB147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148">
         <v>0.71799999999999997</v>
@@ -12503,13 +12053,10 @@
       <c r="AA148">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AB148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>0.73799999999999999</v>
@@ -12589,13 +12136,10 @@
       <c r="AA149">
         <v>0.84499999999999997</v>
       </c>
-      <c r="AB149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150">
         <v>0.76700000000000002</v>
@@ -12675,13 +12219,10 @@
       <c r="AA150">
         <v>0.89</v>
       </c>
-      <c r="AB150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K151">
         <v>0.45500000000000002</v>
@@ -12734,13 +12275,10 @@
       <c r="AA151">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AB151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" s="1">
         <v>0.621</v>
@@ -12820,13 +12358,10 @@
       <c r="AA152" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="AB152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153">
         <v>0.73099999999999998</v>
@@ -12906,13 +12441,10 @@
       <c r="AA153">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AB153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V154">
         <v>0.42899999999999999</v>
@@ -12932,13 +12464,10 @@
       <c r="AA154">
         <v>0.41799999999999998</v>
       </c>
-      <c r="AB154" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155">
         <v>0.755</v>
@@ -13018,13 +12547,10 @@
       <c r="AA155">
         <v>0.88400000000000001</v>
       </c>
-      <c r="AB155" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156">
         <v>0.626</v>
@@ -13104,13 +12630,10 @@
       <c r="AA156">
         <v>0.76600000000000001</v>
       </c>
-      <c r="AB156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V157">
         <v>0.74099999999999999</v>
@@ -13130,13 +12653,10 @@
       <c r="AA157">
         <v>0.76500000000000001</v>
       </c>
-      <c r="AB157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L158">
         <v>0.68400000000000005</v>
@@ -13186,13 +12706,10 @@
       <c r="AA158">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AB158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L159">
         <v>0.67300000000000004</v>
@@ -13242,13 +12759,10 @@
       <c r="AA159">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AB159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160">
         <v>0.33100000000000002</v>
@@ -13328,13 +12842,10 @@
       <c r="AA160">
         <v>0.49</v>
       </c>
-      <c r="AB160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P161">
         <v>0.67200000000000004</v>
@@ -13372,13 +12883,10 @@
       <c r="AA161">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AB161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" s="1">
         <v>0.54800000000000004</v>
@@ -13458,13 +12966,10 @@
       <c r="AA162" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="AB162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>0.81499999999999995</v>
@@ -13544,13 +13049,10 @@
       <c r="AA163">
         <v>0.91300000000000003</v>
       </c>
-      <c r="AB163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <v>0.83099999999999996</v>
@@ -13630,13 +13132,10 @@
       <c r="AA164">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AB164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165">
         <v>0.55600000000000005</v>
@@ -13716,13 +13215,10 @@
       <c r="AA165">
         <v>0.53600000000000003</v>
       </c>
-      <c r="AB165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166">
         <v>0.61599999999999999</v>
@@ -13802,13 +13298,10 @@
       <c r="AA166">
         <v>0.627</v>
       </c>
-      <c r="AB166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" s="1">
         <v>0.37</v>
@@ -13888,13 +13381,10 @@
       <c r="AA167" s="1">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AB167" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168">
         <v>0.57399999999999995</v>
@@ -13974,13 +13464,10 @@
       <c r="AA168">
         <v>0.74</v>
       </c>
-      <c r="AB168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L169">
         <v>0.47</v>
@@ -14030,13 +13517,10 @@
       <c r="AA169">
         <v>0.60599999999999998</v>
       </c>
-      <c r="AB169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170">
         <v>0.40400000000000003</v>
@@ -14116,13 +13600,10 @@
       <c r="AA170">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AB170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171">
         <v>0.64800000000000002</v>
@@ -14202,13 +13683,10 @@
       <c r="AA171">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AB171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172">
         <v>0.67</v>
@@ -14288,13 +13766,10 @@
       <c r="AA172">
         <v>0.78</v>
       </c>
-      <c r="AB172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173">
         <v>0.56899999999999995</v>
@@ -14374,13 +13849,10 @@
       <c r="AA173">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AB173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B174">
         <v>0.57599999999999996</v>
@@ -14460,13 +13932,10 @@
       <c r="AA174">
         <v>0.76700000000000002</v>
       </c>
-      <c r="AB174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V175">
         <v>0.66500000000000004</v>
@@ -14486,13 +13955,10 @@
       <c r="AA175">
         <v>0.69199999999999995</v>
       </c>
-      <c r="AB175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B176">
         <v>0.309</v>
@@ -14572,13 +14038,10 @@
       <c r="AA176">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AB176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B177">
         <v>0.70599999999999996</v>
@@ -14658,13 +14121,10 @@
       <c r="AA177">
         <v>0.74299999999999999</v>
       </c>
-      <c r="AB177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>0.72599999999999998</v>
@@ -14744,13 +14204,10 @@
       <c r="AA178">
         <v>0.84</v>
       </c>
-      <c r="AB178" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>0.77500000000000002</v>
@@ -14830,13 +14287,10 @@
       <c r="AA179">
         <v>0.91</v>
       </c>
-      <c r="AB179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180">
         <v>0.86</v>
@@ -14916,13 +14370,10 @@
       <c r="AA180">
         <v>0.92</v>
       </c>
-      <c r="AB180" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181">
         <v>0.69199999999999995</v>
@@ -15002,13 +14453,10 @@
       <c r="AA181">
         <v>0.79500000000000004</v>
       </c>
-      <c r="AB181" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L182">
         <v>0.59399999999999997</v>
@@ -15058,13 +14506,10 @@
       <c r="AA182">
         <v>0.70099999999999996</v>
       </c>
-      <c r="AB182" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q183">
         <v>0.57199999999999995</v>
@@ -15099,13 +14544,10 @@
       <c r="AA183">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AB183" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184">
         <v>0.63400000000000001</v>
@@ -15185,13 +14627,10 @@
       <c r="AA184">
         <v>0.76700000000000002</v>
       </c>
-      <c r="AB184" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185">
         <v>0.47699999999999998</v>
@@ -15271,13 +14710,10 @@
       <c r="AA185">
         <v>0.68300000000000005</v>
       </c>
-      <c r="AB185" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186">
         <v>0.40500000000000003</v>
@@ -15357,13 +14793,10 @@
       <c r="AA186">
         <v>0.48199999999999998</v>
       </c>
-      <c r="AB186" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" s="1">
         <v>0.39800000000000002</v>
@@ -15443,13 +14876,10 @@
       <c r="AA187" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AB187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" s="1">
         <v>0.499</v>
@@ -15528,9 +14958,6 @@
       </c>
       <c r="AA188" s="1">
         <v>0.51600000000000001</v>
-      </c>
-      <c r="AB188" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
